--- a/Running projects/Orient Dolmen Mall Lahore/Running Bill No 1 - Orient Mall.xlsx
+++ b/Running projects/Orient Dolmen Mall Lahore/Running Bill No 1 - Orient Mall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Orient Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31686EAF-2436-44D4-B7CA-23105B776A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167529E4-712A-4E0A-8368-E714C0B31A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6600" yWindow="6090" windowWidth="15330" windowHeight="10890" tabRatio="525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2082,51 +2082,6 @@
     <xf numFmtId="168" fontId="26" fillId="0" borderId="44" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2142,69 +2097,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="30" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,9 +2119,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="31" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2267,6 +2159,137 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="5" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="5" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="5" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="30" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="5" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="46" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
@@ -2596,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143C5B92-180E-4922-83F2-5052BE8B5302}">
   <dimension ref="A3:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2620,12 +2643,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="225"/>
@@ -2658,7 +2681,7 @@
       </c>
       <c r="D11" s="235">
         <f>HVAC!L26</f>
-        <v>0</v>
+        <v>1112280</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -2679,7 +2702,7 @@
       </c>
       <c r="D13" s="235">
         <f>Fire!L32</f>
-        <v>0</v>
+        <v>1679828.53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -2695,21 +2718,21 @@
       <c r="D15" s="235"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="242"/>
+      <c r="B16" s="269"/>
       <c r="C16" s="238"/>
       <c r="D16" s="239">
         <f>SUM(D10:D15)</f>
-        <v>0</v>
+        <v>2792108.5300000003</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15">
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="270" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="243"/>
+      <c r="D21" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2730,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:L10"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -2742,7 +2765,9 @@
     <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="46" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="3" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" style="25"/>
     <col min="15" max="16" width="19.7109375" style="25" customWidth="1"/>
@@ -2878,77 +2903,77 @@
       </c>
       <c r="R5" s="78"/>
     </row>
-    <row r="6" spans="1:28" s="268" customFormat="1" ht="18.75">
-      <c r="A6" s="260" t="s">
+    <row r="6" spans="1:28" s="245" customFormat="1" ht="18.75">
+      <c r="A6" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="261" t="s">
+      <c r="B6" s="253"/>
+      <c r="C6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="265" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="283" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
-    </row>
-    <row r="7" spans="1:28" s="268" customFormat="1" ht="15.75">
-      <c r="A7" s="269"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274" t="s">
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="285"/>
+    </row>
+    <row r="7" spans="1:28" s="245" customFormat="1" ht="15.75">
+      <c r="A7" s="272"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="275"/>
-      <c r="J7" s="276" t="s">
+      <c r="I7" s="287"/>
+      <c r="J7" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="277"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="289"/>
+      <c r="L7" s="290" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="268" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="279"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="280"/>
-      <c r="D8" s="281" t="s">
+    <row r="8" spans="1:28" s="245" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="273"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="282" t="s">
+      <c r="E8" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="283" t="s">
+      <c r="F8" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="284" t="s">
+      <c r="G8" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="285" t="s">
+      <c r="H8" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="284" t="s">
+      <c r="I8" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="286" t="s">
+      <c r="J8" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="287" t="s">
+      <c r="K8" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="288"/>
+      <c r="L8" s="291"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="A9" s="49"/>
@@ -2960,10 +2985,10 @@
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="255"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
       <c r="L9" s="100"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -2998,22 +3023,24 @@
       <c r="G10" s="123">
         <v>80</v>
       </c>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256">
+      <c r="H10" s="303">
+        <v>1024</v>
+      </c>
+      <c r="I10" s="241">
         <f>H10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="256">
+        <v>491520</v>
+      </c>
+      <c r="J10" s="303">
         <f>H10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="256">
+        <v>1024</v>
+      </c>
+      <c r="K10" s="241">
         <f>J10*G10</f>
-        <v>0</v>
+        <v>81920</v>
       </c>
       <c r="L10" s="124">
         <f>K10+I10</f>
-        <v>0</v>
+        <v>573440</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -3048,22 +3075,24 @@
       <c r="G11" s="123">
         <v>70</v>
       </c>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256">
+      <c r="H11" s="303">
+        <v>1024</v>
+      </c>
+      <c r="I11" s="241">
         <f>H11*F11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="256">
+        <v>204800</v>
+      </c>
+      <c r="J11" s="303">
         <f>H11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="256">
+        <v>1024</v>
+      </c>
+      <c r="K11" s="241">
         <f>J11*G11</f>
-        <v>0</v>
+        <v>71680</v>
       </c>
       <c r="L11" s="124">
         <f>K11+I11</f>
-        <v>0</v>
+        <v>276480</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -3099,22 +3128,24 @@
       <c r="G12" s="123">
         <v>70</v>
       </c>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256">
+      <c r="H12" s="303">
+        <v>68</v>
+      </c>
+      <c r="I12" s="241">
         <f>H12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="256">
+        <v>13600</v>
+      </c>
+      <c r="J12" s="303">
         <f>H12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="256">
+        <v>68</v>
+      </c>
+      <c r="K12" s="241">
         <f>J12*G12</f>
-        <v>0</v>
+        <v>4760</v>
       </c>
       <c r="L12" s="124">
         <f>K12+I12</f>
-        <v>0</v>
+        <v>18360</v>
       </c>
       <c r="M12" s="95"/>
       <c r="N12" s="95"/>
@@ -3135,10 +3166,10 @@
       <c r="E13" s="29"/>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
+      <c r="H13" s="304"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="304"/>
+      <c r="K13" s="242"/>
       <c r="L13" s="101"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -3159,10 +3190,10 @@
       <c r="E14" s="105"/>
       <c r="F14" s="106"/>
       <c r="G14" s="106"/>
-      <c r="H14" s="258"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
+      <c r="H14" s="305"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="305"/>
+      <c r="K14" s="243"/>
       <c r="L14" s="107"/>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
@@ -3190,22 +3221,24 @@
       <c r="G15" s="123">
         <v>750</v>
       </c>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256">
+      <c r="H15" s="303">
+        <v>6</v>
+      </c>
+      <c r="I15" s="241">
         <f>H15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="256">
+        <v>51000</v>
+      </c>
+      <c r="J15" s="303">
         <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="256">
+        <v>6</v>
+      </c>
+      <c r="K15" s="241">
         <f>J15*G15</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L15" s="124">
         <f>K15+I15</f>
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
@@ -3226,10 +3259,10 @@
       <c r="E16" s="105"/>
       <c r="F16" s="123"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="303"/>
+      <c r="K16" s="241"/>
       <c r="L16" s="124"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
@@ -3257,22 +3290,24 @@
       <c r="G17" s="123">
         <v>750</v>
       </c>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256">
+      <c r="H17" s="303">
+        <v>3</v>
+      </c>
+      <c r="I17" s="241">
         <f>H17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="256">
+        <v>13500</v>
+      </c>
+      <c r="J17" s="303">
         <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="256">
+        <v>3</v>
+      </c>
+      <c r="K17" s="241">
         <f>J17*G17</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="L17" s="124">
         <f>K17+I17</f>
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -3293,10 +3328,10 @@
       <c r="E18" s="91"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="303"/>
+      <c r="K18" s="241"/>
       <c r="L18" s="124"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
@@ -3324,22 +3359,24 @@
       <c r="G19" s="123">
         <v>750</v>
       </c>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256">
+      <c r="H19" s="303">
+        <v>1</v>
+      </c>
+      <c r="I19" s="241">
         <f t="shared" ref="I19:I21" si="0">H19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="256">
+        <v>8000</v>
+      </c>
+      <c r="J19" s="303">
         <f t="shared" ref="J19:J21" si="1">H19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="256">
+        <v>1</v>
+      </c>
+      <c r="K19" s="241">
         <f t="shared" ref="K19:K21" si="2">J19*G19</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="L19" s="124">
         <f t="shared" ref="L19:L21" si="3">K19+I19</f>
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
@@ -3367,22 +3404,24 @@
       <c r="G20" s="123">
         <v>750</v>
       </c>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256">
+      <c r="H20" s="303">
+        <v>2</v>
+      </c>
+      <c r="I20" s="241">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="256">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="303">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="256">
+        <v>2</v>
+      </c>
+      <c r="K20" s="241">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L20" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
@@ -3410,22 +3449,24 @@
       <c r="G21" s="123">
         <v>300</v>
       </c>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256">
+      <c r="H21" s="303">
+        <v>10</v>
+      </c>
+      <c r="I21" s="241">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="256">
+        <v>17500</v>
+      </c>
+      <c r="J21" s="303">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="256">
+        <v>10</v>
+      </c>
+      <c r="K21" s="241">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L21" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
@@ -3454,22 +3495,24 @@
       <c r="G22" s="123">
         <v>50</v>
       </c>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256">
+      <c r="H22" s="303">
+        <v>120</v>
+      </c>
+      <c r="I22" s="241">
         <f>H22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="256">
+        <v>12000</v>
+      </c>
+      <c r="J22" s="303">
         <f>H22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="256">
+        <v>120</v>
+      </c>
+      <c r="K22" s="241">
         <f>J22*G22</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L22" s="124">
         <f>K22+I22</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
@@ -3492,28 +3535,30 @@
       <c r="E23" s="122">
         <v>1</v>
       </c>
-      <c r="F23" s="298">
+      <c r="F23" s="262">
         <v>45000</v>
       </c>
-      <c r="G23" s="298">
+      <c r="G23" s="262">
         <v>20000</v>
       </c>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299">
+      <c r="H23" s="306">
+        <v>1</v>
+      </c>
+      <c r="I23" s="263">
         <f>H23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="299">
+        <v>45000</v>
+      </c>
+      <c r="J23" s="306">
         <f>H23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="299">
+        <v>1</v>
+      </c>
+      <c r="K23" s="263">
         <f>J23*G23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="300">
+        <v>20000</v>
+      </c>
+      <c r="L23" s="264">
         <f>K23+I23</f>
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -3549,22 +3594,24 @@
       <c r="G24" s="123">
         <v>30000</v>
       </c>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256">
+      <c r="H24" s="303">
+        <v>1</v>
+      </c>
+      <c r="I24" s="241">
         <f>H24*F24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="256">
+      <c r="J24" s="303">
         <f>H24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="256">
+        <v>1</v>
+      </c>
+      <c r="K24" s="241">
         <f>J24*G24</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L24" s="124">
         <f>K24+I24</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -3601,22 +3648,24 @@
       <c r="G25" s="123">
         <v>10000</v>
       </c>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256">
+      <c r="H25" s="303">
+        <v>1</v>
+      </c>
+      <c r="I25" s="241">
         <f>H25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="256">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="303">
         <f>H25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="256">
+        <v>1</v>
+      </c>
+      <c r="K25" s="241">
         <f>J25*G25</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L25" s="124">
         <f>K25+I25</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -3634,26 +3683,26 @@
     <row r="26" spans="1:28" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A26" s="115"/>
       <c r="B26" s="116"/>
-      <c r="C26" s="246" t="s">
+      <c r="C26" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="247"/>
-      <c r="E26" s="248"/>
+      <c r="D26" s="295"/>
+      <c r="E26" s="296"/>
       <c r="F26" s="117"/>
       <c r="G26" s="117"/>
-      <c r="H26" s="259"/>
+      <c r="H26" s="244"/>
       <c r="I26" s="118">
         <f>SUM(I9:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="259"/>
+        <v>875920</v>
+      </c>
+      <c r="J26" s="244"/>
       <c r="K26" s="118">
         <f>SUM(K9:K25)</f>
-        <v>0</v>
+        <v>236360</v>
       </c>
       <c r="L26" s="118">
         <f>SUM(L9:L25)</f>
-        <v>0</v>
+        <v>1112280</v>
       </c>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -3700,10 +3749,10 @@
       <c r="A28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="244" t="s">
+      <c r="B28" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="244"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
@@ -3730,10 +3779,10 @@
       <c r="A29" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="245" t="s">
+      <c r="B29" s="293" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="245"/>
+      <c r="C29" s="293"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -3768,6 +3817,9 @@
     <sortCondition ref="B18:B26"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:G7"/>
@@ -3775,9 +3827,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3793,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FA071C-9AC3-4296-9F95-A755359B4563}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.25"/>
@@ -3804,7 +3853,9 @@
     <col min="3" max="3" width="54.140625" style="138" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="139" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" style="139" customWidth="1"/>
-    <col min="6" max="11" width="9.85546875" style="139" customWidth="1"/>
+    <col min="6" max="8" width="9.85546875" style="139" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" style="139" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="220" customWidth="1"/>
     <col min="13" max="258" width="10.140625" style="141"/>
     <col min="259" max="259" width="4.140625" style="141" customWidth="1"/>
@@ -4516,77 +4567,77 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="268" customFormat="1" ht="18.75">
-      <c r="A6" s="260" t="s">
+    <row r="6" spans="1:14" s="245" customFormat="1" ht="18.75">
+      <c r="A6" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="261" t="s">
+      <c r="B6" s="253"/>
+      <c r="C6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="265" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="283" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
-    </row>
-    <row r="7" spans="1:14" s="268" customFormat="1" ht="15.75">
-      <c r="A7" s="269"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274" t="s">
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="285"/>
+    </row>
+    <row r="7" spans="1:14" s="245" customFormat="1" ht="15.75">
+      <c r="A7" s="272"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="275"/>
-      <c r="J7" s="276" t="s">
+      <c r="I7" s="287"/>
+      <c r="J7" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="277"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="289"/>
+      <c r="L7" s="290" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="268" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="279"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="280"/>
-      <c r="D8" s="281" t="s">
+    <row r="8" spans="1:14" s="245" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="273"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="282" t="s">
+      <c r="E8" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="283" t="s">
+      <c r="F8" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="284" t="s">
+      <c r="G8" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="285" t="s">
+      <c r="H8" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="284" t="s">
+      <c r="I8" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="286" t="s">
+      <c r="J8" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="287" t="s">
+      <c r="K8" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="288"/>
+      <c r="L8" s="291"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
       <c r="A9" s="146"/>
@@ -4598,10 +4649,10 @@
       <c r="E9" s="150"/>
       <c r="F9" s="150"/>
       <c r="G9" s="150"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
       <c r="L9" s="151"/>
     </row>
     <row r="10" spans="1:14" ht="56.45" customHeight="1">
@@ -4614,10 +4665,10 @@
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
       <c r="G10" s="156"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="293"/>
-      <c r="K10" s="293"/>
+      <c r="H10" s="307"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="257"/>
       <c r="L10" s="157"/>
     </row>
     <row r="11" spans="1:14" ht="93" customHeight="1">
@@ -4632,9 +4683,9 @@
       <c r="E11" s="160"/>
       <c r="F11" s="161"/>
       <c r="G11" s="161"/>
-      <c r="H11" s="162"/>
+      <c r="H11" s="308"/>
       <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
+      <c r="J11" s="308"/>
       <c r="K11" s="162"/>
       <c r="L11" s="163"/>
       <c r="N11" s="164"/>
@@ -4659,22 +4710,24 @@
       <c r="G12" s="170">
         <v>200</v>
       </c>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256">
-        <f>H12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="256">
-        <f>H12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="256">
-        <f>J12*G12</f>
-        <v>0</v>
+      <c r="H12" s="303">
+        <v>278</v>
+      </c>
+      <c r="I12" s="241">
+        <f t="shared" ref="I12:I17" si="0">H12*F12</f>
+        <v>198770</v>
+      </c>
+      <c r="J12" s="303">
+        <f t="shared" ref="J12:J17" si="1">H12</f>
+        <v>278</v>
+      </c>
+      <c r="K12" s="241">
+        <f t="shared" ref="K12:K17" si="2">J12*G12</f>
+        <v>55600</v>
       </c>
       <c r="L12" s="124">
-        <f>K12+I12</f>
-        <v>0</v>
+        <f t="shared" ref="L12:L17" si="3">K12+I12</f>
+        <v>254370</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
@@ -4697,22 +4750,24 @@
       <c r="G13" s="170">
         <v>250</v>
       </c>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256">
-        <f>H13*F13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="256">
-        <f>H13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="256">
-        <f>J13*G13</f>
-        <v>0</v>
+      <c r="H13" s="303">
+        <v>29.5</v>
+      </c>
+      <c r="I13" s="241">
+        <f t="shared" si="0"/>
+        <v>26845</v>
+      </c>
+      <c r="J13" s="303">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="K13" s="241">
+        <f t="shared" si="2"/>
+        <v>7375</v>
       </c>
       <c r="L13" s="124">
-        <f>K13+I13</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>34220</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
@@ -4735,22 +4790,24 @@
       <c r="G14" s="170">
         <v>300</v>
       </c>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256">
-        <f>H14*F14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="256">
-        <f>H14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="256">
-        <f>J14*G14</f>
-        <v>0</v>
+      <c r="H14" s="303">
+        <v>101.23</v>
+      </c>
+      <c r="I14" s="241">
+        <f t="shared" si="0"/>
+        <v>112466.53</v>
+      </c>
+      <c r="J14" s="303">
+        <f t="shared" si="1"/>
+        <v>101.23</v>
+      </c>
+      <c r="K14" s="241">
+        <f t="shared" si="2"/>
+        <v>30369</v>
       </c>
       <c r="L14" s="124">
-        <f>K14+I14</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>142835.53</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
@@ -4773,22 +4830,24 @@
       <c r="G15" s="170">
         <v>350</v>
       </c>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256">
-        <f>H15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="256">
-        <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="256">
-        <f>J15*G15</f>
-        <v>0</v>
+      <c r="H15" s="303">
+        <v>138.5</v>
+      </c>
+      <c r="I15" s="241">
+        <f t="shared" si="0"/>
+        <v>204980</v>
+      </c>
+      <c r="J15" s="303">
+        <f t="shared" si="1"/>
+        <v>138.5</v>
+      </c>
+      <c r="K15" s="241">
+        <f t="shared" si="2"/>
+        <v>48475</v>
       </c>
       <c r="L15" s="124">
-        <f>K15+I15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>253455</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
@@ -4811,22 +4870,24 @@
       <c r="G16" s="170">
         <v>400</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256">
-        <f>H16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="256">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="256">
-        <f>J16*G16</f>
-        <v>0</v>
+      <c r="H16" s="303">
+        <v>22</v>
+      </c>
+      <c r="I16" s="241">
+        <f t="shared" si="0"/>
+        <v>58300</v>
+      </c>
+      <c r="J16" s="303">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K16" s="241">
+        <f t="shared" si="2"/>
+        <v>8800</v>
       </c>
       <c r="L16" s="124">
-        <f>K16+I16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>67100</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="171" customFormat="1" ht="18" customHeight="1">
@@ -4849,22 +4910,24 @@
       <c r="G17" s="170">
         <v>500</v>
       </c>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256">
-        <f>H17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="256">
-        <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="256">
-        <f>J17*G17</f>
-        <v>0</v>
+      <c r="H17" s="303">
+        <v>64</v>
+      </c>
+      <c r="I17" s="241">
+        <f t="shared" si="0"/>
+        <v>206848</v>
+      </c>
+      <c r="J17" s="303">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K17" s="241">
+        <f t="shared" si="2"/>
+        <v>32000</v>
       </c>
       <c r="L17" s="124">
-        <f>K17+I17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>238848</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="178" customFormat="1" ht="15.6" customHeight="1">
@@ -4880,10 +4943,10 @@
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="176"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
-      <c r="K18" s="294"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="258"/>
       <c r="L18" s="177"/>
       <c r="Q18" s="141"/>
       <c r="R18" s="141"/>
@@ -4908,22 +4971,24 @@
       <c r="G19" s="170">
         <v>600</v>
       </c>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256">
+      <c r="H19" s="303">
+        <v>4</v>
+      </c>
+      <c r="I19" s="241">
         <f>H19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="256">
+        <v>13000</v>
+      </c>
+      <c r="J19" s="303">
         <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="256">
+        <v>4</v>
+      </c>
+      <c r="K19" s="241">
         <f>J19*G19</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L19" s="124">
         <f>K19+I19</f>
-        <v>0</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="178" customFormat="1" ht="16.5" customHeight="1">
@@ -4946,22 +5011,24 @@
       <c r="G20" s="170">
         <v>600</v>
       </c>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256">
+      <c r="H20" s="303">
+        <v>31</v>
+      </c>
+      <c r="I20" s="241">
         <f>H20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="256">
+        <v>100750</v>
+      </c>
+      <c r="J20" s="303">
         <f>H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="256">
+        <v>31</v>
+      </c>
+      <c r="K20" s="241">
         <f>J20*G20</f>
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="L20" s="124">
         <f>K20+I20</f>
-        <v>0</v>
+        <v>119350</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="178" customFormat="1" ht="27.6" customHeight="1">
@@ -4984,22 +5051,24 @@
       <c r="G21" s="170">
         <v>700</v>
       </c>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256">
+      <c r="H21" s="303">
+        <v>31</v>
+      </c>
+      <c r="I21" s="241">
         <f>H21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="256">
+        <v>232500</v>
+      </c>
+      <c r="J21" s="303">
         <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="256">
+        <v>31</v>
+      </c>
+      <c r="K21" s="241">
         <f>J21*G21</f>
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="L21" s="124">
         <f>K21+I21</f>
-        <v>0</v>
+        <v>254200</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="178" customFormat="1" ht="27.6" customHeight="1">
@@ -5022,22 +5091,24 @@
       <c r="G22" s="170">
         <v>700</v>
       </c>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256">
+      <c r="H22" s="303">
+        <v>4</v>
+      </c>
+      <c r="I22" s="241">
         <f>H22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="256">
+        <v>30000</v>
+      </c>
+      <c r="J22" s="303">
         <f>H22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="256">
+        <v>4</v>
+      </c>
+      <c r="K22" s="241">
         <f>J22*G22</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="L22" s="124">
         <f>K22+I22</f>
-        <v>0</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -5053,10 +5124,10 @@
       <c r="E23" s="187"/>
       <c r="F23" s="188"/>
       <c r="G23" s="188"/>
-      <c r="H23" s="295"/>
-      <c r="I23" s="295"/>
-      <c r="J23" s="295"/>
-      <c r="K23" s="295"/>
+      <c r="H23" s="310"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="310"/>
+      <c r="K23" s="259"/>
       <c r="L23" s="189"/>
     </row>
     <row r="24" spans="1:18" s="178" customFormat="1" ht="15" customHeight="1">
@@ -5080,22 +5151,24 @@
       <c r="G24" s="170">
         <v>4000</v>
       </c>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256">
+      <c r="H24" s="303">
+        <v>1</v>
+      </c>
+      <c r="I24" s="241">
         <f>H24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="256">
+        <v>87000</v>
+      </c>
+      <c r="J24" s="303">
         <f>H24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="256">
+        <v>1</v>
+      </c>
+      <c r="K24" s="241">
         <f>J24*G24</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L24" s="124">
         <f>K24+I24</f>
-        <v>0</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -5111,10 +5184,10 @@
       <c r="E25" s="193"/>
       <c r="F25" s="176"/>
       <c r="G25" s="176"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="296"/>
-      <c r="J25" s="296"/>
-      <c r="K25" s="296"/>
+      <c r="H25" s="311"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="260"/>
       <c r="L25" s="163"/>
     </row>
     <row r="26" spans="1:18" s="171" customFormat="1" ht="20.45" customHeight="1">
@@ -5138,22 +5211,24 @@
       <c r="G26" s="170">
         <v>1000</v>
       </c>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256">
-        <f>H26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="256">
-        <f>H26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="256">
-        <f>J26*G26</f>
-        <v>0</v>
+      <c r="H26" s="303">
+        <v>1</v>
+      </c>
+      <c r="I26" s="241">
+        <f t="shared" ref="I26:I31" si="4">H26*F26</f>
+        <v>24500</v>
+      </c>
+      <c r="J26" s="303">
+        <f t="shared" ref="J26:J31" si="5">H26</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="241">
+        <f t="shared" ref="K26:K31" si="6">J26*G26</f>
+        <v>1000</v>
       </c>
       <c r="L26" s="124">
-        <f>K26+I26</f>
-        <v>0</v>
+        <f t="shared" ref="L26:L31" si="7">K26+I26</f>
+        <v>25500</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="171" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
@@ -5171,28 +5246,30 @@
       <c r="E27" s="200">
         <v>1</v>
       </c>
-      <c r="F27" s="302">
+      <c r="F27" s="266">
         <v>14750</v>
       </c>
-      <c r="G27" s="302">
+      <c r="G27" s="266">
         <v>1000</v>
       </c>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299">
-        <f>H27*F27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="299">
-        <f>H27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="299">
-        <f>J27*G27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="300">
-        <f>K27+I27</f>
-        <v>0</v>
+      <c r="H27" s="306">
+        <v>1</v>
+      </c>
+      <c r="I27" s="263">
+        <f t="shared" si="4"/>
+        <v>14750</v>
+      </c>
+      <c r="J27" s="306">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="263">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="L27" s="264">
+        <f t="shared" si="7"/>
+        <v>15750</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="138" customFormat="1" ht="43.9" customHeight="1">
@@ -5201,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="158"/>
-      <c r="C28" s="301" t="s">
+      <c r="C28" s="265" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="182" t="s">
@@ -5216,22 +5293,24 @@
       <c r="G28" s="170">
         <v>10000</v>
       </c>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256">
-        <f>H28*F28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="256">
-        <f>H28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="256">
-        <f>J28*G28</f>
-        <v>0</v>
+      <c r="H28" s="303">
+        <v>1</v>
+      </c>
+      <c r="I28" s="241">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="303">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="241">
+        <f t="shared" si="6"/>
+        <v>10000</v>
       </c>
       <c r="L28" s="124">
-        <f>K28+I28</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="178" customFormat="1" ht="29.25" customHeight="1">
@@ -5255,22 +5334,24 @@
       <c r="G29" s="170">
         <v>45000</v>
       </c>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256">
-        <f>H29*F29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="256">
-        <f>H29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="256">
-        <f>J29*G29</f>
-        <v>0</v>
+      <c r="H29" s="303">
+        <v>1</v>
+      </c>
+      <c r="I29" s="241">
+        <f t="shared" si="4"/>
+        <v>35000</v>
+      </c>
+      <c r="J29" s="303">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="241">
+        <f t="shared" si="6"/>
+        <v>45000</v>
       </c>
       <c r="L29" s="124">
-        <f>K29+I29</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -5294,22 +5375,24 @@
       <c r="G30" s="170">
         <v>20000</v>
       </c>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256">
-        <f>H30*F30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="256">
-        <f>H30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="256">
-        <f>J30*G30</f>
-        <v>0</v>
+      <c r="H30" s="303">
+        <v>1</v>
+      </c>
+      <c r="I30" s="241">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="J30" s="303">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="241">
+        <f t="shared" si="6"/>
+        <v>20000</v>
       </c>
       <c r="L30" s="124">
-        <f>K30+I30</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="138" customFormat="1" ht="31.15" customHeight="1" thickBot="1">
@@ -5331,21 +5414,21 @@
       <c r="G31" s="170">
         <v>30000</v>
       </c>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256">
-        <f>H31*F31</f>
+      <c r="H31" s="303"/>
+      <c r="I31" s="241">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="256">
-        <f>H31</f>
+      <c r="J31" s="303">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K31" s="256">
-        <f>J31*G31</f>
+      <c r="K31" s="241">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L31" s="124">
-        <f>K31+I31</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5359,19 +5442,19 @@
       <c r="E32" s="209"/>
       <c r="F32" s="210"/>
       <c r="G32" s="211"/>
-      <c r="H32" s="297"/>
+      <c r="H32" s="261"/>
       <c r="I32" s="212">
         <f>SUM(I9:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="297"/>
+        <v>1370709.53</v>
+      </c>
+      <c r="J32" s="261"/>
       <c r="K32" s="212">
         <f>SUM(K9:K31)</f>
-        <v>0</v>
+        <v>309119</v>
       </c>
       <c r="L32" s="212">
         <f>SUM(L9:L31)</f>
-        <v>0</v>
+        <v>1679828.53</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -5379,10 +5462,10 @@
       <c r="L33" s="214"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="249" t="s">
+      <c r="A34" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="250"/>
+      <c r="B34" s="298"/>
       <c r="C34" s="215"/>
       <c r="D34" s="215"/>
       <c r="E34" s="215"/>
@@ -5398,42 +5481,42 @@
       <c r="A35" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="251" t="s">
+      <c r="B35" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="251"/>
-      <c r="D35" s="251"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="251"/>
-      <c r="H35" s="251"/>
-      <c r="I35" s="251"/>
-      <c r="J35" s="251"/>
-      <c r="K35" s="251"/>
-      <c r="L35" s="252"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="299"/>
+      <c r="E35" s="299"/>
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="299"/>
+      <c r="K35" s="299"/>
+      <c r="L35" s="300"/>
     </row>
     <row r="36" spans="1:12" ht="27.6" customHeight="1" thickBot="1">
       <c r="A36" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="253" t="s">
+      <c r="B36" s="301" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="253"/>
-      <c r="D36" s="253"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
-      <c r="K36" s="253"/>
-      <c r="L36" s="254"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="301"/>
+      <c r="G36" s="301"/>
+      <c r="H36" s="301"/>
+      <c r="I36" s="301"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="301"/>
+      <c r="L36" s="302"/>
     </row>
     <row r="44" spans="1:12">
       <c r="L44" s="219">
         <f>L32+HVAC!$L$26</f>
-        <v>0</v>
+        <v>2792108.5300000003</v>
       </c>
     </row>
   </sheetData>

--- a/Running projects/Orient Dolmen Mall Lahore/Running Bill No 1 - Orient Mall.xlsx
+++ b/Running projects/Orient Dolmen Mall Lahore/Running Bill No 1 - Orient Mall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Orient Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167529E4-712A-4E0A-8368-E714C0B31A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8221E0-D3BA-4790-9BEE-4E5A2AC0D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$1:$8</definedName>
     <definedName name="work">HVAC!$A$9:$L$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>Job.</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>ORIENT DOLMEN MALL LAHORE</t>
-  </si>
-  <si>
-    <t>Deal Lock at 7% Discount</t>
   </si>
   <si>
     <t>S #</t>
@@ -522,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,7 +1400,7 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1860,7 +1851,6 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,34 +2090,34 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="5" borderId="62" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="4" borderId="62" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2159,6 +2149,29 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="46" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="65" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2168,72 +2181,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="5" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="30" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="5" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2249,6 +2196,69 @@
     <xf numFmtId="37" fontId="4" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="30" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2267,29 +2277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="46" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
@@ -2617,128 +2605,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143C5B92-180E-4922-83F2-5052BE8B5302}">
-  <dimension ref="A3:D21"/>
+  <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="222"/>
-    <col min="2" max="2" width="45.7109375" style="222" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="223"/>
-    <col min="4" max="4" width="17" style="224" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="222"/>
+    <col min="1" max="1" width="9.140625" style="221"/>
+    <col min="2" max="2" width="45.7109375" style="221" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="222"/>
+    <col min="4" max="4" width="17" style="223" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="221"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="221" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="267"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="225"/>
+      <c r="A8" s="224"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="229" t="s">
+      <c r="B9" s="226"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="231"/>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="235">
+      <c r="D11" s="234">
         <f>HVAC!L26</f>
-        <v>1112280</v>
+        <v>1056666</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="236"/>
-      <c r="B12" s="236"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="235"/>
+      <c r="A12" s="235"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="234"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="233" t="s">
+      <c r="C13" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="235">
+      <c r="D13" s="234">
         <f>Fire!L32</f>
-        <v>1679828.53</v>
+        <v>1595837.1035</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="236"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="235"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="234"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="236"/>
-      <c r="B15" s="236"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="235"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="234"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="239">
+      <c r="B16" s="277"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="238">
         <f>SUM(D10:D15)</f>
-        <v>2792108.5300000003</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="15">
-      <c r="C21" s="270" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="270"/>
+        <v>2652503.1035000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2753,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -2903,77 +2884,77 @@
       </c>
       <c r="R5" s="78"/>
     </row>
-    <row r="6" spans="1:28" s="245" customFormat="1" ht="18.75">
-      <c r="A6" s="271" t="s">
+    <row r="6" spans="1:28" s="244" customFormat="1" ht="18.75">
+      <c r="A6" s="283" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="286" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="295" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="277" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283" t="s">
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="297"/>
+    </row>
+    <row r="7" spans="1:28" s="244" customFormat="1" ht="15.75">
+      <c r="A7" s="284"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="298" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="299"/>
+      <c r="J7" s="300" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="301"/>
+      <c r="L7" s="302" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="285"/>
-    </row>
-    <row r="7" spans="1:28" s="245" customFormat="1" ht="15.75">
-      <c r="A7" s="272"/>
-      <c r="B7" s="254"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="286" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="287"/>
-      <c r="J7" s="288" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="289"/>
-      <c r="L7" s="290" t="s">
+    </row>
+    <row r="8" spans="1:28" s="244" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="285"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="245" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="247" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="248" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="245" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="273"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="246" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="247" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="248" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="249" t="s">
+      <c r="H8" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="250" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="249" t="s">
+      <c r="I8" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="251" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="252" t="s">
+      <c r="J8" s="250" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="291"/>
+      <c r="L8" s="303"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="A9" s="49"/>
@@ -2985,10 +2966,10 @@
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
       <c r="L9" s="100"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -3018,33 +2999,33 @@
         <v>830</v>
       </c>
       <c r="F10" s="123">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="G10" s="123">
-        <v>80</v>
-      </c>
-      <c r="H10" s="303">
+        <v>76</v>
+      </c>
+      <c r="H10" s="266">
         <v>1024</v>
       </c>
-      <c r="I10" s="241">
+      <c r="I10" s="240">
         <f>H10*F10</f>
-        <v>491520</v>
-      </c>
-      <c r="J10" s="303">
+        <v>466944</v>
+      </c>
+      <c r="J10" s="266">
         <f>H10</f>
         <v>1024</v>
       </c>
-      <c r="K10" s="241">
+      <c r="K10" s="240">
         <f>J10*G10</f>
-        <v>81920</v>
+        <v>77824</v>
       </c>
       <c r="L10" s="124">
         <f>K10+I10</f>
-        <v>573440</v>
+        <v>544768</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="310"/>
+      <c r="O10" s="310"/>
       <c r="P10" s="25"/>
       <c r="R10" s="80"/>
       <c r="V10" s="9"/>
@@ -3070,33 +3051,33 @@
         <v>830</v>
       </c>
       <c r="F11" s="123">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G11" s="123">
-        <v>70</v>
-      </c>
-      <c r="H11" s="303">
+        <v>66.5</v>
+      </c>
+      <c r="H11" s="266">
         <v>1024</v>
       </c>
-      <c r="I11" s="241">
+      <c r="I11" s="240">
         <f>H11*F11</f>
-        <v>204800</v>
-      </c>
-      <c r="J11" s="303">
+        <v>194560</v>
+      </c>
+      <c r="J11" s="266">
         <f>H11</f>
         <v>1024</v>
       </c>
-      <c r="K11" s="241">
+      <c r="K11" s="240">
         <f>J11*G11</f>
-        <v>71680</v>
+        <v>68096</v>
       </c>
       <c r="L11" s="124">
         <f>K11+I11</f>
-        <v>276480</v>
+        <v>262656</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="310"/>
       <c r="P11" s="25"/>
       <c r="R11" s="80"/>
       <c r="V11" s="9"/>
@@ -3123,33 +3104,33 @@
         <v>120</v>
       </c>
       <c r="F12" s="123">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G12" s="123">
-        <v>70</v>
-      </c>
-      <c r="H12" s="303">
+        <v>66.5</v>
+      </c>
+      <c r="H12" s="266">
         <v>68</v>
       </c>
-      <c r="I12" s="241">
+      <c r="I12" s="240">
         <f>H12*F12</f>
-        <v>13600</v>
-      </c>
-      <c r="J12" s="303">
+        <v>12920</v>
+      </c>
+      <c r="J12" s="266">
         <f>H12</f>
         <v>68</v>
       </c>
-      <c r="K12" s="241">
+      <c r="K12" s="240">
         <f>J12*G12</f>
-        <v>4760</v>
+        <v>4522</v>
       </c>
       <c r="L12" s="124">
         <f>K12+I12</f>
-        <v>18360</v>
+        <v>17442</v>
       </c>
       <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
+      <c r="N12" s="310"/>
+      <c r="O12" s="310"/>
       <c r="P12" s="95"/>
       <c r="R12" s="97"/>
     </row>
@@ -3164,16 +3145,20 @@
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="242"/>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="267"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="241"/>
       <c r="L13" s="101"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
       <c r="P13" s="25"/>
       <c r="R13" s="75"/>
     </row>
@@ -3188,16 +3173,20 @@
       </c>
       <c r="D14" s="88"/>
       <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="305"/>
-      <c r="K14" s="243"/>
+      <c r="F14" s="106">
+        <v>0</v>
+      </c>
+      <c r="G14" s="106">
+        <v>0</v>
+      </c>
+      <c r="H14" s="268"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="107"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
       <c r="P14" s="44"/>
       <c r="R14" s="81"/>
     </row>
@@ -3216,33 +3205,33 @@
         <v>6</v>
       </c>
       <c r="F15" s="123">
-        <v>8500</v>
+        <v>8075</v>
       </c>
       <c r="G15" s="123">
-        <v>750</v>
-      </c>
-      <c r="H15" s="303">
+        <v>712.5</v>
+      </c>
+      <c r="H15" s="266">
         <v>6</v>
       </c>
-      <c r="I15" s="241">
+      <c r="I15" s="240">
         <f>H15*F15</f>
-        <v>51000</v>
-      </c>
-      <c r="J15" s="303">
+        <v>48450</v>
+      </c>
+      <c r="J15" s="266">
         <f>H15</f>
         <v>6</v>
       </c>
-      <c r="K15" s="241">
+      <c r="K15" s="240">
         <f>J15*G15</f>
-        <v>4500</v>
+        <v>4275</v>
       </c>
       <c r="L15" s="124">
         <f>K15+I15</f>
-        <v>55500</v>
+        <v>52725</v>
       </c>
       <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="N15" s="310"/>
+      <c r="O15" s="310"/>
       <c r="P15" s="44"/>
       <c r="R15" s="81"/>
     </row>
@@ -3257,16 +3246,20 @@
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="105"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="303"/>
-      <c r="K16" s="241"/>
+      <c r="F16" s="123">
+        <v>0</v>
+      </c>
+      <c r="G16" s="123">
+        <v>0</v>
+      </c>
+      <c r="H16" s="266"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="240"/>
       <c r="L16" s="124"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
+      <c r="N16" s="310"/>
+      <c r="O16" s="310"/>
       <c r="P16" s="44"/>
       <c r="R16" s="81"/>
     </row>
@@ -3285,33 +3278,33 @@
         <v>3</v>
       </c>
       <c r="F17" s="123">
-        <v>4500</v>
+        <v>4275</v>
       </c>
       <c r="G17" s="123">
-        <v>750</v>
-      </c>
-      <c r="H17" s="303">
+        <v>712.5</v>
+      </c>
+      <c r="H17" s="266">
         <v>3</v>
       </c>
-      <c r="I17" s="241">
+      <c r="I17" s="240">
         <f>H17*F17</f>
-        <v>13500</v>
-      </c>
-      <c r="J17" s="303">
+        <v>12825</v>
+      </c>
+      <c r="J17" s="266">
         <f>H17</f>
         <v>3</v>
       </c>
-      <c r="K17" s="241">
+      <c r="K17" s="240">
         <f>J17*G17</f>
-        <v>2250</v>
+        <v>2137.5</v>
       </c>
       <c r="L17" s="124">
         <f>K17+I17</f>
-        <v>15750</v>
+        <v>14962.5</v>
       </c>
       <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
       <c r="P17" s="44"/>
       <c r="R17" s="81"/>
     </row>
@@ -3326,16 +3319,20 @@
       </c>
       <c r="D18" s="90"/>
       <c r="E18" s="91"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="303"/>
-      <c r="K18" s="241"/>
+      <c r="F18" s="123">
+        <v>0</v>
+      </c>
+      <c r="G18" s="123">
+        <v>0</v>
+      </c>
+      <c r="H18" s="266"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="240"/>
       <c r="L18" s="124"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
       <c r="P18" s="44"/>
       <c r="R18" s="81"/>
     </row>
@@ -3354,33 +3351,33 @@
         <v>1</v>
       </c>
       <c r="F19" s="123">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="G19" s="123">
-        <v>750</v>
-      </c>
-      <c r="H19" s="303">
+        <v>712.5</v>
+      </c>
+      <c r="H19" s="266">
         <v>1</v>
       </c>
-      <c r="I19" s="241">
+      <c r="I19" s="240">
         <f t="shared" ref="I19:I21" si="0">H19*F19</f>
-        <v>8000</v>
-      </c>
-      <c r="J19" s="303">
+        <v>7600</v>
+      </c>
+      <c r="J19" s="266">
         <f t="shared" ref="J19:J21" si="1">H19</f>
         <v>1</v>
       </c>
-      <c r="K19" s="241">
+      <c r="K19" s="240">
         <f t="shared" ref="K19:K21" si="2">J19*G19</f>
-        <v>750</v>
+        <v>712.5</v>
       </c>
       <c r="L19" s="124">
         <f t="shared" ref="L19:L21" si="3">K19+I19</f>
-        <v>8750</v>
+        <v>8312.5</v>
       </c>
       <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
+      <c r="N19" s="310"/>
+      <c r="O19" s="310"/>
       <c r="P19" s="44"/>
       <c r="R19" s="81"/>
     </row>
@@ -3399,33 +3396,33 @@
         <v>2</v>
       </c>
       <c r="F20" s="123">
-        <v>4500</v>
+        <v>4275</v>
       </c>
       <c r="G20" s="123">
-        <v>750</v>
-      </c>
-      <c r="H20" s="303">
+        <v>712.5</v>
+      </c>
+      <c r="H20" s="266">
         <v>2</v>
       </c>
-      <c r="I20" s="241">
+      <c r="I20" s="240">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="J20" s="303">
+        <v>8550</v>
+      </c>
+      <c r="J20" s="266">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K20" s="241">
+      <c r="K20" s="240">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>1425</v>
       </c>
       <c r="L20" s="124">
         <f t="shared" si="3"/>
-        <v>10500</v>
+        <v>9975</v>
       </c>
       <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
       <c r="P20" s="44"/>
       <c r="R20" s="81"/>
     </row>
@@ -3444,33 +3441,33 @@
         <v>10</v>
       </c>
       <c r="F21" s="123">
-        <v>1750</v>
+        <v>1662.5</v>
       </c>
       <c r="G21" s="123">
-        <v>300</v>
-      </c>
-      <c r="H21" s="303">
+        <v>285</v>
+      </c>
+      <c r="H21" s="266">
         <v>10</v>
       </c>
-      <c r="I21" s="241">
+      <c r="I21" s="240">
         <f t="shared" si="0"/>
-        <v>17500</v>
-      </c>
-      <c r="J21" s="303">
+        <v>16625</v>
+      </c>
+      <c r="J21" s="266">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K21" s="241">
+      <c r="K21" s="240">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="L21" s="124">
         <f t="shared" si="3"/>
-        <v>20500</v>
+        <v>19475</v>
       </c>
       <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="310"/>
       <c r="P21" s="44"/>
       <c r="R21" s="81"/>
     </row>
@@ -3490,33 +3487,33 @@
         <v>50</v>
       </c>
       <c r="F22" s="123">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G22" s="123">
-        <v>50</v>
-      </c>
-      <c r="H22" s="303">
+        <v>47.5</v>
+      </c>
+      <c r="H22" s="266">
         <v>120</v>
       </c>
-      <c r="I22" s="241">
+      <c r="I22" s="240">
         <f>H22*F22</f>
-        <v>12000</v>
-      </c>
-      <c r="J22" s="303">
+        <v>11400</v>
+      </c>
+      <c r="J22" s="266">
         <f>H22</f>
         <v>120</v>
       </c>
-      <c r="K22" s="241">
+      <c r="K22" s="240">
         <f>J22*G22</f>
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="L22" s="124">
         <f>K22+I22</f>
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
+      <c r="N22" s="310"/>
+      <c r="O22" s="310"/>
       <c r="P22" s="44"/>
       <c r="R22" s="81"/>
     </row>
@@ -3535,34 +3532,34 @@
       <c r="E23" s="122">
         <v>1</v>
       </c>
-      <c r="F23" s="262">
-        <v>45000</v>
-      </c>
-      <c r="G23" s="262">
-        <v>20000</v>
-      </c>
-      <c r="H23" s="306">
+      <c r="F23" s="261">
+        <v>42750</v>
+      </c>
+      <c r="G23" s="261">
+        <v>19000</v>
+      </c>
+      <c r="H23" s="269">
         <v>1</v>
       </c>
-      <c r="I23" s="263">
+      <c r="I23" s="262">
         <f>H23*F23</f>
-        <v>45000</v>
-      </c>
-      <c r="J23" s="306">
+        <v>42750</v>
+      </c>
+      <c r="J23" s="269">
         <f>H23</f>
         <v>1</v>
       </c>
-      <c r="K23" s="263">
+      <c r="K23" s="262">
         <f>J23*G23</f>
-        <v>20000</v>
-      </c>
-      <c r="L23" s="264">
+        <v>19000</v>
+      </c>
+      <c r="L23" s="263">
         <f>K23+I23</f>
-        <v>65000</v>
+        <v>61750</v>
       </c>
       <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
       <c r="P23" s="25"/>
       <c r="R23" s="80"/>
       <c r="V23" s="9"/>
@@ -3592,30 +3589,30 @@
         <v>0</v>
       </c>
       <c r="G24" s="123">
-        <v>30000</v>
-      </c>
-      <c r="H24" s="303">
+        <v>28500</v>
+      </c>
+      <c r="H24" s="266">
         <v>1</v>
       </c>
-      <c r="I24" s="241">
+      <c r="I24" s="240">
         <f>H24*F24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="303">
+      <c r="J24" s="266">
         <f>H24</f>
         <v>1</v>
       </c>
-      <c r="K24" s="241">
+      <c r="K24" s="240">
         <f>J24*G24</f>
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="L24" s="124">
         <f>K24+I24</f>
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="80"/>
@@ -3643,33 +3640,33 @@
         <v>1</v>
       </c>
       <c r="F25" s="123">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="G25" s="123">
-        <v>10000</v>
-      </c>
-      <c r="H25" s="303">
+        <v>9500</v>
+      </c>
+      <c r="H25" s="266">
         <v>1</v>
       </c>
-      <c r="I25" s="241">
+      <c r="I25" s="240">
         <f>H25*F25</f>
-        <v>10000</v>
-      </c>
-      <c r="J25" s="303">
+        <v>9500</v>
+      </c>
+      <c r="J25" s="266">
         <f>H25</f>
         <v>1</v>
       </c>
-      <c r="K25" s="241">
+      <c r="K25" s="240">
         <f>J25*G25</f>
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L25" s="124">
         <f>K25+I25</f>
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="310"/>
+      <c r="O25" s="310"/>
       <c r="P25" s="25"/>
       <c r="R25" s="82"/>
       <c r="V25" s="9"/>
@@ -3683,26 +3680,26 @@
     <row r="26" spans="1:28" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A26" s="115"/>
       <c r="B26" s="116"/>
-      <c r="C26" s="294" t="s">
+      <c r="C26" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="295"/>
-      <c r="E26" s="296"/>
+      <c r="D26" s="281"/>
+      <c r="E26" s="282"/>
       <c r="F26" s="117"/>
       <c r="G26" s="117"/>
-      <c r="H26" s="244"/>
+      <c r="H26" s="243"/>
       <c r="I26" s="118">
         <f>SUM(I9:I25)</f>
-        <v>875920</v>
-      </c>
-      <c r="J26" s="244"/>
+        <v>832124</v>
+      </c>
+      <c r="J26" s="243"/>
       <c r="K26" s="118">
         <f>SUM(K9:K25)</f>
-        <v>236360</v>
+        <v>224542</v>
       </c>
       <c r="L26" s="118">
         <f>SUM(L9:L25)</f>
-        <v>1112280</v>
+        <v>1056666</v>
       </c>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -3749,10 +3746,10 @@
       <c r="A28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="292" t="s">
+      <c r="B28" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="292"/>
+      <c r="C28" s="278"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
@@ -3779,10 +3776,10 @@
       <c r="A29" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="293" t="s">
+      <c r="B29" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="293"/>
+      <c r="C29" s="279"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -3817,16 +3814,16 @@
     <sortCondition ref="B18:B26"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:G7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3843,10 +3840,10 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="139" customWidth="1"/>
     <col min="2" max="2" width="3" style="139" customWidth="1"/>
@@ -3856,8 +3853,11 @@
     <col min="6" max="8" width="9.85546875" style="139" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="139" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.85546875" style="139" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="220" customWidth="1"/>
-    <col min="13" max="258" width="10.140625" style="141"/>
+    <col min="12" max="12" width="15.7109375" style="219" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="141"/>
+    <col min="14" max="14" width="8.85546875" style="25"/>
+    <col min="15" max="15" width="19.7109375" style="25" customWidth="1"/>
+    <col min="16" max="258" width="10.140625" style="141"/>
     <col min="259" max="259" width="4.140625" style="141" customWidth="1"/>
     <col min="260" max="260" width="3" style="141" customWidth="1"/>
     <col min="261" max="261" width="54.140625" style="141" customWidth="1"/>
@@ -4490,7 +4490,7 @@
     <col min="16141" max="16384" width="10.140625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="112" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:15" s="112" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="125" t="s">
         <v>41</v>
       </c>
@@ -4505,8 +4505,10 @@
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
       <c r="L1" s="129"/>
-    </row>
-    <row r="2" spans="1:14" s="112" customFormat="1" ht="18" customHeight="1">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="112" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="130" t="s">
         <v>43</v>
       </c>
@@ -4521,8 +4523,10 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
       <c r="L2" s="129"/>
-    </row>
-    <row r="3" spans="1:14" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="133"/>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -4535,8 +4539,10 @@
       <c r="J3" s="135"/>
       <c r="K3" s="135"/>
       <c r="L3" s="136"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75">
       <c r="A4" s="137" t="s">
         <v>31</v>
       </c>
@@ -4551,8 +4557,10 @@
       <c r="L4" s="140" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" thickBot="1">
       <c r="A5" s="142" t="s">
         <v>20</v>
       </c>
@@ -4566,80 +4574,82 @@
       <c r="L5" s="145" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="245" customFormat="1" ht="18.75">
-      <c r="A6" s="271" t="s">
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="1:15" s="244" customFormat="1" ht="18.75">
+      <c r="A6" s="283" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="286" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="295" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="277" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283" t="s">
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="297"/>
+    </row>
+    <row r="7" spans="1:15" s="244" customFormat="1" ht="15.75">
+      <c r="A7" s="284"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="298" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="299"/>
+      <c r="J7" s="300" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="301"/>
+      <c r="L7" s="302" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="285"/>
-    </row>
-    <row r="7" spans="1:14" s="245" customFormat="1" ht="15.75">
-      <c r="A7" s="272"/>
-      <c r="B7" s="254"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="286" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="287"/>
-      <c r="J7" s="288" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="289"/>
-      <c r="L7" s="290" t="s">
+    </row>
+    <row r="8" spans="1:15" s="244" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="285"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="245" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="247" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="248" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="245" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="273"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="246" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="247" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="248" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="249" t="s">
+      <c r="H8" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="250" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="249" t="s">
+      <c r="I8" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="251" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="252" t="s">
+      <c r="J8" s="250" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="291"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1">
+      <c r="L8" s="303"/>
+    </row>
+    <row r="9" spans="1:15" ht="21.75" customHeight="1">
       <c r="A9" s="146"/>
       <c r="B9" s="147"/>
       <c r="C9" s="148" t="s">
@@ -4649,13 +4659,13 @@
       <c r="E9" s="150"/>
       <c r="F9" s="150"/>
       <c r="G9" s="150"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="255"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="151"/>
     </row>
-    <row r="10" spans="1:14" ht="56.45" customHeight="1">
+    <row r="10" spans="1:15" ht="56.45" customHeight="1">
       <c r="A10" s="152"/>
       <c r="B10" s="153"/>
       <c r="C10" s="154" t="s">
@@ -4665,13 +4675,15 @@
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
       <c r="G10" s="156"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="257"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
       <c r="L10" s="157"/>
-    </row>
-    <row r="11" spans="1:14" ht="93" customHeight="1">
+      <c r="N10" s="310"/>
+      <c r="O10" s="310"/>
+    </row>
+    <row r="11" spans="1:15" ht="93" customHeight="1">
       <c r="A11" s="152">
         <v>1</v>
       </c>
@@ -4683,400 +4695,425 @@
       <c r="E11" s="160"/>
       <c r="F11" s="161"/>
       <c r="G11" s="161"/>
-      <c r="H11" s="308"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="162"/>
-      <c r="J11" s="308"/>
+      <c r="J11" s="271"/>
       <c r="K11" s="162"/>
       <c r="L11" s="163"/>
-      <c r="N11" s="164"/>
-    </row>
-    <row r="12" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="166" t="s">
+      <c r="N11" s="310"/>
+      <c r="O11" s="310"/>
+    </row>
+    <row r="12" spans="1:15" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="164"/>
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="169">
+      <c r="E12" s="168">
         <v>265</v>
       </c>
-      <c r="F12" s="170">
-        <v>715</v>
-      </c>
-      <c r="G12" s="170">
-        <v>200</v>
-      </c>
-      <c r="H12" s="303">
+      <c r="F12" s="169">
+        <v>679.25</v>
+      </c>
+      <c r="G12" s="169">
+        <v>190</v>
+      </c>
+      <c r="H12" s="266">
         <v>278</v>
       </c>
-      <c r="I12" s="241">
+      <c r="I12" s="240">
         <f t="shared" ref="I12:I17" si="0">H12*F12</f>
-        <v>198770</v>
-      </c>
-      <c r="J12" s="303">
+        <v>188831.5</v>
+      </c>
+      <c r="J12" s="266">
         <f t="shared" ref="J12:J17" si="1">H12</f>
         <v>278</v>
       </c>
-      <c r="K12" s="241">
+      <c r="K12" s="240">
         <f t="shared" ref="K12:K17" si="2">J12*G12</f>
-        <v>55600</v>
+        <v>52820</v>
       </c>
       <c r="L12" s="124">
         <f t="shared" ref="L12:L17" si="3">K12+I12</f>
-        <v>254370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="166" t="s">
+        <v>241651.5</v>
+      </c>
+      <c r="N12" s="310"/>
+      <c r="O12" s="310"/>
+    </row>
+    <row r="13" spans="1:15" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="164"/>
+      <c r="B13" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="172">
+      <c r="E13" s="171">
         <v>210</v>
       </c>
-      <c r="F13" s="170">
-        <v>910</v>
-      </c>
-      <c r="G13" s="170">
-        <v>250</v>
-      </c>
-      <c r="H13" s="303">
+      <c r="F13" s="169">
+        <v>864.5</v>
+      </c>
+      <c r="G13" s="169">
+        <v>237.5</v>
+      </c>
+      <c r="H13" s="266">
         <v>29.5</v>
       </c>
-      <c r="I13" s="241">
+      <c r="I13" s="240">
         <f t="shared" si="0"/>
-        <v>26845</v>
-      </c>
-      <c r="J13" s="303">
+        <v>25502.75</v>
+      </c>
+      <c r="J13" s="266">
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="K13" s="241">
+      <c r="K13" s="240">
         <f t="shared" si="2"/>
-        <v>7375</v>
+        <v>7006.25</v>
       </c>
       <c r="L13" s="124">
         <f t="shared" si="3"/>
-        <v>34220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="166" t="s">
+        <v>32509</v>
+      </c>
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
+    </row>
+    <row r="14" spans="1:15" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="164"/>
+      <c r="B14" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="172">
+      <c r="E14" s="171">
         <v>40</v>
       </c>
-      <c r="F14" s="170">
-        <v>1111</v>
-      </c>
-      <c r="G14" s="170">
-        <v>300</v>
-      </c>
-      <c r="H14" s="303">
+      <c r="F14" s="169">
+        <v>1055.45</v>
+      </c>
+      <c r="G14" s="169">
+        <v>285</v>
+      </c>
+      <c r="H14" s="266">
         <v>101.23</v>
       </c>
-      <c r="I14" s="241">
+      <c r="I14" s="240">
         <f t="shared" si="0"/>
-        <v>112466.53</v>
-      </c>
-      <c r="J14" s="303">
+        <v>106843.2035</v>
+      </c>
+      <c r="J14" s="266">
         <f t="shared" si="1"/>
         <v>101.23</v>
       </c>
-      <c r="K14" s="241">
+      <c r="K14" s="240">
         <f t="shared" si="2"/>
-        <v>30369</v>
+        <v>28850.550000000003</v>
       </c>
       <c r="L14" s="124">
         <f t="shared" si="3"/>
-        <v>142835.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166" t="s">
+        <v>135693.75349999999</v>
+      </c>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
+    </row>
+    <row r="15" spans="1:15" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="164"/>
+      <c r="B15" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="172">
+      <c r="E15" s="171">
         <v>35</v>
       </c>
-      <c r="F15" s="170">
-        <v>1480</v>
-      </c>
-      <c r="G15" s="170">
-        <v>350</v>
-      </c>
-      <c r="H15" s="303">
+      <c r="F15" s="169">
+        <v>1406</v>
+      </c>
+      <c r="G15" s="169">
+        <v>332.5</v>
+      </c>
+      <c r="H15" s="266">
         <v>138.5</v>
       </c>
-      <c r="I15" s="241">
+      <c r="I15" s="240">
         <f t="shared" si="0"/>
-        <v>204980</v>
-      </c>
-      <c r="J15" s="303">
+        <v>194731</v>
+      </c>
+      <c r="J15" s="266">
         <f t="shared" si="1"/>
         <v>138.5</v>
       </c>
-      <c r="K15" s="241">
+      <c r="K15" s="240">
         <f t="shared" si="2"/>
-        <v>48475</v>
+        <v>46051.25</v>
       </c>
       <c r="L15" s="124">
         <f t="shared" si="3"/>
-        <v>253455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166" t="s">
+        <v>240782.25</v>
+      </c>
+      <c r="N15" s="310"/>
+      <c r="O15" s="310"/>
+    </row>
+    <row r="16" spans="1:15" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="164"/>
+      <c r="B16" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="172">
+      <c r="E16" s="171">
         <v>50</v>
       </c>
-      <c r="F16" s="170">
-        <v>2650</v>
-      </c>
-      <c r="G16" s="170">
-        <v>400</v>
-      </c>
-      <c r="H16" s="303">
+      <c r="F16" s="169">
+        <v>2517.5</v>
+      </c>
+      <c r="G16" s="169">
+        <v>380</v>
+      </c>
+      <c r="H16" s="266">
         <v>22</v>
       </c>
-      <c r="I16" s="241">
+      <c r="I16" s="240">
         <f t="shared" si="0"/>
-        <v>58300</v>
-      </c>
-      <c r="J16" s="303">
+        <v>55385</v>
+      </c>
+      <c r="J16" s="266">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K16" s="241">
+      <c r="K16" s="240">
         <f t="shared" si="2"/>
-        <v>8800</v>
+        <v>8360</v>
       </c>
       <c r="L16" s="124">
         <f t="shared" si="3"/>
-        <v>67100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="171" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166" t="s">
+        <v>63745</v>
+      </c>
+      <c r="N16" s="310"/>
+      <c r="O16" s="310"/>
+    </row>
+    <row r="17" spans="1:18" s="170" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="164"/>
+      <c r="B17" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="173">
+      <c r="E17" s="172">
         <v>120</v>
       </c>
-      <c r="F17" s="170">
-        <v>3232</v>
-      </c>
-      <c r="G17" s="170">
-        <v>500</v>
-      </c>
-      <c r="H17" s="303">
+      <c r="F17" s="169">
+        <v>3070.4</v>
+      </c>
+      <c r="G17" s="169">
+        <v>475</v>
+      </c>
+      <c r="H17" s="266">
         <v>64</v>
       </c>
-      <c r="I17" s="241">
+      <c r="I17" s="240">
         <f t="shared" si="0"/>
-        <v>206848</v>
-      </c>
-      <c r="J17" s="303">
+        <v>196505.60000000001</v>
+      </c>
+      <c r="J17" s="266">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K17" s="241">
+      <c r="K17" s="240">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>30400</v>
       </c>
       <c r="L17" s="124">
         <f t="shared" si="3"/>
-        <v>238848</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="178" customFormat="1" ht="15.6" customHeight="1">
+        <v>226905.60000000001</v>
+      </c>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
+    </row>
+    <row r="18" spans="1:18" s="177" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="152">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="174" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="173" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="159"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="177"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175">
+        <v>0</v>
+      </c>
+      <c r="G18" s="175">
+        <v>0</v>
+      </c>
+      <c r="H18" s="272"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="257"/>
+      <c r="L18" s="176"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
       <c r="Q18" s="141"/>
       <c r="R18" s="141"/>
     </row>
-    <row r="19" spans="1:18" s="178" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="179"/>
-      <c r="B19" s="180" t="s">
+    <row r="19" spans="1:18" s="177" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D19" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="183">
+      <c r="E19" s="182">
         <v>4</v>
       </c>
-      <c r="F19" s="170">
-        <v>3250</v>
-      </c>
-      <c r="G19" s="170">
-        <v>600</v>
-      </c>
-      <c r="H19" s="303">
+      <c r="F19" s="169">
+        <v>3087.5</v>
+      </c>
+      <c r="G19" s="169">
+        <v>570</v>
+      </c>
+      <c r="H19" s="266">
         <v>4</v>
       </c>
-      <c r="I19" s="241">
+      <c r="I19" s="240">
         <f>H19*F19</f>
-        <v>13000</v>
-      </c>
-      <c r="J19" s="303">
+        <v>12350</v>
+      </c>
+      <c r="J19" s="266">
         <f>H19</f>
         <v>4</v>
       </c>
-      <c r="K19" s="241">
+      <c r="K19" s="240">
         <f>J19*G19</f>
-        <v>2400</v>
+        <v>2280</v>
       </c>
       <c r="L19" s="124">
         <f>K19+I19</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="178" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180" t="s">
+        <v>14630</v>
+      </c>
+      <c r="N19" s="310"/>
+      <c r="O19" s="310"/>
+    </row>
+    <row r="20" spans="1:18" s="177" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="182" t="s">
+      <c r="D20" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="183">
+      <c r="E20" s="182">
         <v>31</v>
       </c>
-      <c r="F20" s="170">
-        <v>3250</v>
-      </c>
-      <c r="G20" s="170">
-        <v>600</v>
-      </c>
-      <c r="H20" s="303">
+      <c r="F20" s="169">
+        <v>3087.5</v>
+      </c>
+      <c r="G20" s="169">
+        <v>570</v>
+      </c>
+      <c r="H20" s="266">
         <v>31</v>
       </c>
-      <c r="I20" s="241">
+      <c r="I20" s="240">
         <f>H20*F20</f>
-        <v>100750</v>
-      </c>
-      <c r="J20" s="303">
+        <v>95712.5</v>
+      </c>
+      <c r="J20" s="266">
         <f>H20</f>
         <v>31</v>
       </c>
-      <c r="K20" s="241">
+      <c r="K20" s="240">
         <f>J20*G20</f>
-        <v>18600</v>
+        <v>17670</v>
       </c>
       <c r="L20" s="124">
         <f>K20+I20</f>
-        <v>119350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="178" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="180" t="s">
+        <v>113382.5</v>
+      </c>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+    </row>
+    <row r="21" spans="1:18" s="177" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D21" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="183">
+      <c r="E21" s="182">
         <v>31</v>
       </c>
-      <c r="F21" s="170">
-        <v>7500</v>
-      </c>
-      <c r="G21" s="170">
-        <v>700</v>
-      </c>
-      <c r="H21" s="303">
+      <c r="F21" s="169">
+        <v>7125</v>
+      </c>
+      <c r="G21" s="169">
+        <v>665</v>
+      </c>
+      <c r="H21" s="266">
         <v>31</v>
       </c>
-      <c r="I21" s="241">
+      <c r="I21" s="240">
         <f>H21*F21</f>
-        <v>232500</v>
-      </c>
-      <c r="J21" s="303">
+        <v>220875</v>
+      </c>
+      <c r="J21" s="266">
         <f>H21</f>
         <v>31</v>
       </c>
-      <c r="K21" s="241">
+      <c r="K21" s="240">
         <f>J21*G21</f>
-        <v>21700</v>
+        <v>20615</v>
       </c>
       <c r="L21" s="124">
         <f>K21+I21</f>
-        <v>254200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="178" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="180" t="s">
+        <v>241490</v>
+      </c>
+      <c r="N21" s="310"/>
+      <c r="O21" s="310"/>
+    </row>
+    <row r="22" spans="1:18" s="177" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="183" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="159" t="s">
@@ -5085,192 +5122,212 @@
       <c r="E22" s="160">
         <v>4</v>
       </c>
-      <c r="F22" s="170">
-        <v>7500</v>
-      </c>
-      <c r="G22" s="170">
-        <v>700</v>
-      </c>
-      <c r="H22" s="303">
+      <c r="F22" s="169">
+        <v>7125</v>
+      </c>
+      <c r="G22" s="169">
+        <v>665</v>
+      </c>
+      <c r="H22" s="266">
         <v>4</v>
       </c>
-      <c r="I22" s="241">
+      <c r="I22" s="240">
         <f>H22*F22</f>
-        <v>30000</v>
-      </c>
-      <c r="J22" s="303">
+        <v>28500</v>
+      </c>
+      <c r="J22" s="266">
         <f>H22</f>
         <v>4</v>
       </c>
-      <c r="K22" s="241">
+      <c r="K22" s="240">
         <f>J22*G22</f>
-        <v>2800</v>
+        <v>2660</v>
       </c>
       <c r="L22" s="124">
         <f>K22+I22</f>
-        <v>32800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="165">
+        <v>31160</v>
+      </c>
+      <c r="N22" s="310"/>
+      <c r="O22" s="310"/>
+    </row>
+    <row r="23" spans="1:18" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="164">
         <f>A18+1</f>
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="185" t="s">
+      <c r="B23" s="165"/>
+      <c r="C23" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="186"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="310"/>
-      <c r="K23" s="259"/>
-      <c r="L23" s="189"/>
-    </row>
-    <row r="24" spans="1:18" s="178" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="166" t="s">
+      <c r="D23" s="185"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187">
+        <v>0</v>
+      </c>
+      <c r="G23" s="187">
+        <v>0</v>
+      </c>
+      <c r="H23" s="273"/>
+      <c r="I23" s="258"/>
+      <c r="J23" s="273"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="188"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
+    </row>
+    <row r="24" spans="1:18" s="177" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="178"/>
+      <c r="B24" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="190" t="s">
+      <c r="C24" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="182" t="str">
+      <c r="D24" s="181" t="str">
         <f>IF(C24="","",IF(E24="","",IF(E24&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E24" s="183">
+      <c r="E24" s="182">
         <v>1</v>
       </c>
-      <c r="F24" s="170">
-        <v>87000</v>
-      </c>
-      <c r="G24" s="170">
-        <v>4000</v>
-      </c>
-      <c r="H24" s="303">
+      <c r="F24" s="169">
+        <v>82650</v>
+      </c>
+      <c r="G24" s="169">
+        <v>3800</v>
+      </c>
+      <c r="H24" s="266">
         <v>1</v>
       </c>
-      <c r="I24" s="241">
+      <c r="I24" s="240">
         <f>H24*F24</f>
-        <v>87000</v>
-      </c>
-      <c r="J24" s="303">
+        <v>82650</v>
+      </c>
+      <c r="J24" s="266">
         <f>H24</f>
         <v>1</v>
       </c>
-      <c r="K24" s="241">
+      <c r="K24" s="240">
         <f>J24*G24</f>
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L24" s="124">
         <f>K24+I24</f>
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="179">
+        <v>86450</v>
+      </c>
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
+    </row>
+    <row r="25" spans="1:18" s="170" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="178">
         <f>A23+1</f>
         <v>4</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192" t="s">
+      <c r="B25" s="190"/>
+      <c r="C25" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="186"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="311"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="311"/>
-      <c r="K25" s="260"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="175">
+        <v>0</v>
+      </c>
+      <c r="G25" s="175">
+        <v>0</v>
+      </c>
+      <c r="H25" s="274"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="259"/>
       <c r="L25" s="163"/>
-    </row>
-    <row r="26" spans="1:18" s="171" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A26" s="194"/>
-      <c r="B26" s="166" t="s">
+      <c r="N25" s="310"/>
+      <c r="O25" s="310"/>
+    </row>
+    <row r="26" spans="1:18" s="170" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A26" s="193"/>
+      <c r="B26" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="167" t="s">
+      <c r="C26" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="168" t="str">
+      <c r="D26" s="167" t="str">
         <f>IF(C26="","",IF(E26="","",IF(E26&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E26" s="195">
+      <c r="E26" s="194">
         <v>1</v>
       </c>
-      <c r="F26" s="170">
-        <v>24500</v>
-      </c>
-      <c r="G26" s="170">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="303">
+      <c r="F26" s="169">
+        <v>23275</v>
+      </c>
+      <c r="G26" s="169">
+        <v>950</v>
+      </c>
+      <c r="H26" s="266">
         <v>1</v>
       </c>
-      <c r="I26" s="241">
+      <c r="I26" s="240">
         <f t="shared" ref="I26:I31" si="4">H26*F26</f>
-        <v>24500</v>
-      </c>
-      <c r="J26" s="303">
+        <v>23275</v>
+      </c>
+      <c r="J26" s="266">
         <f t="shared" ref="J26:J31" si="5">H26</f>
         <v>1</v>
       </c>
-      <c r="K26" s="241">
+      <c r="K26" s="240">
         <f t="shared" ref="K26:K31" si="6">J26*G26</f>
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L26" s="124">
         <f t="shared" ref="L26:L31" si="7">K26+I26</f>
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="171" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A27" s="196"/>
-      <c r="B27" s="197" t="s">
+        <v>24225</v>
+      </c>
+      <c r="N26" s="310"/>
+      <c r="O26" s="310"/>
+    </row>
+    <row r="27" spans="1:18" s="170" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
+      <c r="A27" s="195"/>
+      <c r="B27" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="198" t="s">
+      <c r="C27" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="199" t="str">
+      <c r="D27" s="198" t="str">
         <f>IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E27" s="200">
+      <c r="E27" s="199">
         <v>1</v>
       </c>
-      <c r="F27" s="266">
-        <v>14750</v>
-      </c>
-      <c r="G27" s="266">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="306">
+      <c r="F27" s="265">
+        <v>14012.5</v>
+      </c>
+      <c r="G27" s="265">
+        <v>950</v>
+      </c>
+      <c r="H27" s="269">
         <v>1</v>
       </c>
-      <c r="I27" s="263">
+      <c r="I27" s="262">
         <f t="shared" si="4"/>
-        <v>14750</v>
-      </c>
-      <c r="J27" s="306">
+        <v>14012.5</v>
+      </c>
+      <c r="J27" s="269">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K27" s="263">
+      <c r="K27" s="262">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="L27" s="264">
+        <v>950</v>
+      </c>
+      <c r="L27" s="263">
         <f t="shared" si="7"/>
-        <v>15750</v>
-      </c>
+        <v>14962.5</v>
+      </c>
+      <c r="N27" s="310"/>
+      <c r="O27" s="310"/>
     </row>
     <row r="28" spans="1:18" s="138" customFormat="1" ht="43.9" customHeight="1">
       <c r="A28" s="152">
@@ -5278,152 +5335,160 @@
         <v>5</v>
       </c>
       <c r="B28" s="158"/>
-      <c r="C28" s="265" t="s">
+      <c r="C28" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="183">
+      <c r="E28" s="182">
         <v>1</v>
       </c>
-      <c r="F28" s="170">
-        <v>10000</v>
-      </c>
-      <c r="G28" s="170">
-        <v>10000</v>
-      </c>
-      <c r="H28" s="303">
+      <c r="F28" s="169">
+        <v>9500</v>
+      </c>
+      <c r="G28" s="169">
+        <v>9500</v>
+      </c>
+      <c r="H28" s="266">
         <v>1</v>
       </c>
-      <c r="I28" s="241">
+      <c r="I28" s="240">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="J28" s="303">
+        <v>9500</v>
+      </c>
+      <c r="J28" s="266">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K28" s="241">
+      <c r="K28" s="240">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L28" s="124">
         <f t="shared" si="7"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="178" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A29" s="201">
+        <v>19000</v>
+      </c>
+      <c r="N28" s="310"/>
+      <c r="O28" s="310"/>
+    </row>
+    <row r="29" spans="1:18" s="177" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A29" s="200">
         <f>A28+1</f>
         <v>6</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="202" t="s">
+      <c r="B29" s="165"/>
+      <c r="C29" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="203" t="s">
+      <c r="D29" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="204">
+      <c r="E29" s="203">
         <v>1</v>
       </c>
-      <c r="F29" s="170">
-        <v>35000</v>
-      </c>
-      <c r="G29" s="170">
-        <v>45000</v>
-      </c>
-      <c r="H29" s="303">
+      <c r="F29" s="169">
+        <v>33250</v>
+      </c>
+      <c r="G29" s="169">
+        <v>42750</v>
+      </c>
+      <c r="H29" s="266">
         <v>1</v>
       </c>
-      <c r="I29" s="241">
+      <c r="I29" s="240">
         <f t="shared" si="4"/>
-        <v>35000</v>
-      </c>
-      <c r="J29" s="303">
+        <v>33250</v>
+      </c>
+      <c r="J29" s="266">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K29" s="241">
+      <c r="K29" s="240">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>42750</v>
       </c>
       <c r="L29" s="124">
         <f t="shared" si="7"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="179">
+        <v>76000</v>
+      </c>
+      <c r="N29" s="310"/>
+      <c r="O29" s="310"/>
+    </row>
+    <row r="30" spans="1:18" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="178">
         <f>A29+1</f>
         <v>7</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="202" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="204">
+      <c r="E30" s="203">
         <v>1</v>
       </c>
-      <c r="F30" s="170">
-        <v>15000</v>
-      </c>
-      <c r="G30" s="170">
-        <v>20000</v>
-      </c>
-      <c r="H30" s="303">
+      <c r="F30" s="169">
+        <v>14250</v>
+      </c>
+      <c r="G30" s="169">
+        <v>19000</v>
+      </c>
+      <c r="H30" s="266">
         <v>1</v>
       </c>
-      <c r="I30" s="241">
+      <c r="I30" s="240">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="J30" s="303">
+        <v>14250</v>
+      </c>
+      <c r="J30" s="266">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K30" s="241">
+      <c r="K30" s="240">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L30" s="124">
         <f t="shared" si="7"/>
-        <v>35000</v>
-      </c>
+        <v>33250</v>
+      </c>
+      <c r="N30" s="310"/>
+      <c r="O30" s="310"/>
     </row>
     <row r="31" spans="1:18" s="138" customFormat="1" ht="31.15" customHeight="1" thickBot="1">
-      <c r="A31" s="201">
+      <c r="A31" s="200">
         <f>A30+1</f>
         <v>8</v>
       </c>
       <c r="B31" s="158"/>
-      <c r="C31" s="205" t="s">
+      <c r="C31" s="204" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="187">
+      <c r="E31" s="186">
         <v>1</v>
       </c>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170">
-        <v>30000</v>
-      </c>
-      <c r="H31" s="303"/>
-      <c r="I31" s="241">
+      <c r="F31" s="169">
+        <v>0</v>
+      </c>
+      <c r="G31" s="169">
+        <v>28500</v>
+      </c>
+      <c r="H31" s="266"/>
+      <c r="I31" s="240">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="303">
+      <c r="J31" s="266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K31" s="241">
+      <c r="K31" s="240">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5431,92 +5496,96 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="171" customFormat="1" ht="26.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="206"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208" t="s">
+      <c r="N31" s="310"/>
+      <c r="O31" s="310"/>
+    </row>
+    <row r="32" spans="1:18" s="170" customFormat="1" ht="26.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A32" s="205"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="212">
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="211">
         <f>SUM(I9:I31)</f>
-        <v>1370709.53</v>
-      </c>
-      <c r="J32" s="261"/>
-      <c r="K32" s="212">
+        <v>1302174.0534999999</v>
+      </c>
+      <c r="J32" s="260"/>
+      <c r="K32" s="211">
         <f>SUM(K9:K31)</f>
-        <v>309119</v>
-      </c>
-      <c r="L32" s="212">
+        <v>293663.05</v>
+      </c>
+      <c r="L32" s="211">
         <f>SUM(L9:L31)</f>
-        <v>1679828.53</v>
-      </c>
+        <v>1595837.1035</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="213"/>
-      <c r="L33" s="214"/>
+      <c r="A33" s="212"/>
+      <c r="L33" s="213"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="297" t="s">
+      <c r="A34" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="298"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="216"/>
-      <c r="L34" s="217"/>
+      <c r="B34" s="305"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="216"/>
     </row>
     <row r="35" spans="1:12" ht="28.15" customHeight="1">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="299" t="s">
+      <c r="B35" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
-      <c r="L35" s="300"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="306"/>
+      <c r="F35" s="306"/>
+      <c r="G35" s="306"/>
+      <c r="H35" s="306"/>
+      <c r="I35" s="306"/>
+      <c r="J35" s="306"/>
+      <c r="K35" s="306"/>
+      <c r="L35" s="307"/>
     </row>
     <row r="36" spans="1:12" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A36" s="218" t="s">
+      <c r="A36" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="301" t="s">
+      <c r="B36" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="301"/>
-      <c r="D36" s="301"/>
-      <c r="E36" s="301"/>
-      <c r="F36" s="301"/>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
-      <c r="I36" s="301"/>
-      <c r="J36" s="301"/>
-      <c r="K36" s="301"/>
-      <c r="L36" s="302"/>
+      <c r="C36" s="308"/>
+      <c r="D36" s="308"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="308"/>
+      <c r="G36" s="308"/>
+      <c r="H36" s="308"/>
+      <c r="I36" s="308"/>
+      <c r="J36" s="308"/>
+      <c r="K36" s="308"/>
+      <c r="L36" s="309"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="L44" s="219">
+      <c r="L44" s="218">
         <f>L32+HVAC!$L$26</f>
-        <v>2792108.5300000003</v>
+        <v>2652503.1035000002</v>
       </c>
     </row>
   </sheetData>
